--- a/data/金砖四国汇率数据分析_BIS_自动生成的.xlsx
+++ b/data/金砖四国汇率数据分析_BIS_自动生成的.xlsx
@@ -3,26 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Documents/Ethan/CoreFiles/ProjectsFile/Research/EconomicAndFinance/MoneyMismatch/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Documents/Ethan/CoreFiles/CodesFile/MoneyMismatch/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F083160A-A06E-7449-9B10-904F019E813C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F1DD56-F33D-6A43-A098-DA75E2F58C2B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="37660" windowHeight="23540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39140" yWindow="1620" windowWidth="37660" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中国" sheetId="1" r:id="rId1"/>
     <sheet name="巴西" sheetId="3" r:id="rId2"/>
     <sheet name="俄罗斯" sheetId="4" r:id="rId3"/>
+    <sheet name="印度" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>时点开始</t>
   </si>
@@ -244,12 +245,73 @@
   </si>
   <si>
     <t>2014-11-09</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1973-01-02</t>
+  </si>
+  <si>
+    <t>1975-09-24</t>
+  </si>
+  <si>
+    <t>1980-01-02</t>
+  </si>
+  <si>
+    <t>1991-06-28</t>
+  </si>
+  <si>
+    <t>1992-03-02</t>
+  </si>
+  <si>
+    <t>1993-03-01</t>
+  </si>
+  <si>
+    <t>1994-08-01</t>
+  </si>
+  <si>
+    <t>2000-06-01</t>
+  </si>
+  <si>
+    <t>2004-01-02</t>
+  </si>
+  <si>
+    <t>2008-01-02</t>
+  </si>
+  <si>
+    <t>1975-09-23</t>
+  </si>
+  <si>
+    <t>1980-01-01</t>
+  </si>
+  <si>
+    <t>1991-06-27</t>
+  </si>
+  <si>
+    <t>1992-03-01</t>
+  </si>
+  <si>
+    <t>1993-02-28</t>
+  </si>
+  <si>
+    <t>1994-07-31</t>
+  </si>
+  <si>
+    <t>2000-05-31</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1534,4 +1596,421 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.945573529411765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.12783383847353377</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0013362701908957418</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002788947050185717</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.8030430949621197E-4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.4947803644444884E-5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.54974742750234</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1487814904545184</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-9.167446211412531E-4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0022107692792802266</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-9.317733949881085E-5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.109576774862203E-5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.41001387443635</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.486096807579814</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0052341311134235175</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.003885814351664971</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.7786603013949727E-4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.0454950309581723E-5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.760421686746987</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.37672891201168324</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04078313253012048</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.11216362541073384</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0017715614104397552</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.0606786813294998E-4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.71584</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.27042037590361445</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.025999999999999985</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.06372048192771085</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.188360777540002E-4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.382370933839416E-5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.518558333333335</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03928580717270183</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.0059083333333333305</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.004788573746518092</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.7989651495284838E-4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.594401252711138E-6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.91416348773842</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.121215651270766</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.006031335149863755</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.019944507884435924</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.8794245319481663E-4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.6274058060893614E-5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.8491820580475</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.5959597048624214</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.017757255936675473</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0313249673744608</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.6430758268714475E-4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.0151673116819987E-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43.290658008379886</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.21187554319447346</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.005573754189944136</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00533815334581056</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.292910285528079E-4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.843708732627042E-6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.16399210819672</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.4130231533019015</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0011249136612021882</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.005750716128022058</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.628189024041784E-5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.6640152094795624E-6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43.96599721129503</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.001244027191978</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.006181440116845183</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.018090306744517573</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1.411418236306173E-4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.497177095524977E-6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45.889126588693955</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.190103412778269</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.013511218323586744</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.08485907925102645</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.354439621865298E-4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.781048956646788E-5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="n">
+        <v>58.90804646527778</v>
+      </c>
+      <c r="E14" t="n">
+        <v>70.10188809615734</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.010365120225694448</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0776998595791158</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.9181957226619353E-4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.2599830370093288E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>